--- a/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-09T08:19:48+00:00</t>
+    <t>2024-10-09T08:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-09T08:45:05+00:00</t>
+    <t>2024-10-09T12:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-09T12:14:51+00:00</t>
+    <t>2024-10-09T12:44:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-09T12:44:25+00:00</t>
+    <t>2024-10-09T12:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/240-digramme-de-séquence-flux-31/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-09T12:57:57+00:00</t>
+    <t>2024-10-10T07:49:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
